--- a/산출물/요구사항정의서.xlsx
+++ b/산출물/요구사항정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalProject\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F8691-2EEC-451E-8344-C3CBE35138DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92557C9D-A9B9-4826-8143-A0ED58633DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6548DD51-0C7E-43CF-8491-0D28AAA80AE5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>REQ-022</t>
+  </si>
+  <si>
+    <t>Team3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -300,16 +304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>551208</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95102</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123636</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293885</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -332,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9734550" y="1228726"/>
-          <a:ext cx="1180952" cy="1523810"/>
+          <a:off x="10622860" y="4854024"/>
+          <a:ext cx="1183851" cy="1506416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -344,16 +348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335031</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504556</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18633</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430012</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -376,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11191875" y="1190626"/>
-          <a:ext cx="2152381" cy="3342857"/>
+          <a:off x="12535314" y="2877794"/>
+          <a:ext cx="2157350" cy="3303100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,16 +392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>415786</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495148</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263234</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>67190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -420,8 +424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487400" y="1171576"/>
-          <a:ext cx="1219048" cy="2514286"/>
+          <a:off x="12616069" y="183461"/>
+          <a:ext cx="1222361" cy="2484468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,7 +737,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,7 +763,9 @@
       <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
